--- a/09/fw_cea_09. 3-tier configuration.xlsx
+++ b/09/fw_cea_09. 3-tier configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0688D634-E8B9-4E8C-A247-7950C1E3D011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C5D07F-6EDF-4A05-BD3D-6734D1F0E461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>TCP Port</t>
   </si>
@@ -132,7 +132,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>outbound</t>
+    <t>App server outbound</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB server Outbound</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 443</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outbound</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1167,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1232,7 +1244,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -1243,8 +1255,8 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10">
-        <v>80443</v>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1252,13 +1264,15 @@
         <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -1269,8 +1283,8 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11">
-        <v>80443</v>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1278,9 +1292,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
